--- a/Student Dataset.xlsx
+++ b/Student Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhijit\Desktop\TT\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83561895-D94D-47CD-81F8-19AD5EEFD9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A2EBA9-F29E-4558-8343-96F2121B07BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D50151BF-57AE-4F2E-965C-680B7C03F52F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="106">
   <si>
     <t>Roll No.</t>
   </si>
@@ -710,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D37BC2-85E7-4B02-831A-227812965ADF}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,10 +733,9 @@
     <col min="15" max="15" width="12.109375" customWidth="1"/>
     <col min="16" max="16" width="21.88671875" customWidth="1"/>
     <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="18" max="18" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,11 +787,8 @@
       <c r="Q1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -845,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -898,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -951,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1005,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1112,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1166,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1219,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1379,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1432,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1485,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2712,7 +2708,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q37">
     <sortCondition ref="B1:B37"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
